--- a/RestAssuredProject/src/test/java/data/restDataDrivenPOI.xlsx
+++ b/RestAssuredProject/src/test/java/data/restDataDrivenPOI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sahus3\OneDrive - Pegasystems Inc\Desktop\UdemyRestAssuredProject\UdemyRestAssured\RestAssuredProject\src\test\java\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94858E6D-79E0-4F2A-BA9A-56F3F041F6D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF821BF7-659A-4A63-A2F6-1FF2D89CDEBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>aa</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>TCs</t>
   </si>
@@ -42,18 +39,6 @@
     <t>dd</t>
   </si>
   <si>
-    <t>a1</t>
-  </si>
-  <si>
-    <t>a2</t>
-  </si>
-  <si>
-    <t>a3</t>
-  </si>
-  <si>
-    <t>a4</t>
-  </si>
-  <si>
     <t>b1</t>
   </si>
   <si>
@@ -72,15 +57,6 @@
     <t>e1</t>
   </si>
   <si>
-    <t>c2</t>
-  </si>
-  <si>
-    <t>d2</t>
-  </si>
-  <si>
-    <t>e2</t>
-  </si>
-  <si>
     <t>c3</t>
   </si>
   <si>
@@ -99,7 +75,13 @@
     <t>e4</t>
   </si>
   <si>
-    <t>Purchase</t>
+    <t>RestAssured</t>
+  </si>
+  <si>
+    <t>Andrew Jenkins</t>
+  </si>
+  <si>
+    <t>ggg</t>
   </si>
 </sst>
 </file>
@@ -423,15 +405,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -444,76 +430,61 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>455</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
